--- a/30/SmBizFound.xlsx
+++ b/30/SmBizFound.xlsx
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/30/SmBizFound.xlsx
+++ b/30/SmBizFound.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>Website</t>
   </si>
@@ -77,12 +77,6 @@
     <t>UCSD</t>
   </si>
   <si>
-    <t>connect.org</t>
-  </si>
-  <si>
-    <t>ansirsd</t>
-  </si>
-  <si>
     <t>union Coop</t>
   </si>
   <si>
@@ -162,13 +156,124 @@
   </si>
   <si>
     <t>Carlsbad</t>
+  </si>
+  <si>
+    <t>http://www.accionsandiego.org/</t>
+  </si>
+  <si>
+    <t>Accion</t>
+  </si>
+  <si>
+    <t>(619) 795-7250</t>
+  </si>
+  <si>
+    <t>info@accionsandiego.org</t>
+  </si>
+  <si>
+    <t>Suzanne Anderson</t>
+  </si>
+  <si>
+    <t>Marketing &amp; Communications Manager</t>
+  </si>
+  <si>
+    <t>Investor</t>
+  </si>
+  <si>
+    <t>404 Euclid Avenue, Suite 271</t>
+  </si>
+  <si>
+    <t>Elizabeth B. Hobson</t>
+  </si>
+  <si>
+    <t>Senior Director, Programs &amp; Events</t>
+  </si>
+  <si>
+    <t>(858) 964-1300</t>
+  </si>
+  <si>
+    <t>4790 Eastgate Mall, Suite 125</t>
+  </si>
+  <si>
+    <t>Connect.org</t>
+  </si>
+  <si>
+    <t>http://www.connect.org/about-connect</t>
+  </si>
+  <si>
+    <t>http://evonexus.org/</t>
+  </si>
+  <si>
+    <t>EvoNexus</t>
+  </si>
+  <si>
+    <t>4225 Executive Square, Ste 400</t>
+  </si>
+  <si>
+    <t>La Jolla</t>
+  </si>
+  <si>
+    <t>92037</t>
+  </si>
+  <si>
+    <t>92121</t>
+  </si>
+  <si>
+    <t>92114</t>
+  </si>
+  <si>
+    <t>92011</t>
+  </si>
+  <si>
+    <t>Co-work, Incubator</t>
+  </si>
+  <si>
+    <t>Katie Conlon</t>
+  </si>
+  <si>
+    <t>http://evonexus.org/people/katie-conlon/</t>
+  </si>
+  <si>
+    <t>kconlon@evonexus.org</t>
+  </si>
+  <si>
+    <t>(888) 926-3987</t>
+  </si>
+  <si>
+    <t>3rd Space</t>
+  </si>
+  <si>
+    <t>Ansir Innovation Center</t>
+  </si>
+  <si>
+    <t>Co-Merge</t>
+  </si>
+  <si>
+    <t>Hera Hub</t>
+  </si>
+  <si>
+    <t>Mindgruve Ventures</t>
+  </si>
+  <si>
+    <t>Real Office Center (ROC)</t>
+  </si>
+  <si>
+    <t>Co-Working / Incubators</t>
+  </si>
+  <si>
+    <t>Investors</t>
+  </si>
+  <si>
+    <t>Educators</t>
+  </si>
+  <si>
+    <t>Business Services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,12 +295,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -205,6 +304,34 @@
       <sz val="10"/>
       <color rgb="FFA3A3A3"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -225,18 +352,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:M22"/>
+  <dimension ref="B3:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,16 +660,16 @@
     <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
     <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -546,16 +680,16 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
@@ -570,91 +704,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
         <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
       </c>
       <c r="K6" t="s">
         <v>11</v>
@@ -662,70 +735,276 @@
       <c r="L6" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="3">
-        <v>92121</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="M6" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
       </c>
-      <c r="M7">
-        <v>92011</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" display="mailto:info@accionsandiego.org"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>